--- a/1. Suma de enteros base UNO/SU-MTDeterminista2C.xlsx
+++ b/1. Suma de enteros base UNO/SU-MTDeterminista2C.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34630\OneDrive\Escritorio\Universidad\4º\2º Cuatrimestre\TAC\P2MT\Practica_MT_TAC\1. Suma de enteros base UNO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\Universidad\5º Año\2º Cuatrimestre\Teoría avanzada de la computación\Práctica\Práctica 2\1. Suma de enteros base UNO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F30542-729B-428B-8A10-00AE2D0EEFDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05A53E4-781D-4D5B-8017-DAFDE582F5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">  PASOS</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">  DIF 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  DIF 3</t>
   </si>
   <si>
     <t xml:space="preserve">  ENTRADA</t>
@@ -319,10 +316,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$4:$L$4</c:f>
+              <c:f>Hoja1!$C$4:$I$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>9</c:v>
                 </c:pt>
@@ -388,10 +385,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$5:$L$5</c:f>
+              <c:f>Hoja1!$C$5:$I$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="1">
                   <c:v>3</c:v>
                 </c:pt>
@@ -454,10 +451,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$6:$L$6</c:f>
+              <c:f>Hoja1!$C$6:$I$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
@@ -480,66 +477,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-C22B-4C16-BE54-D40F0951AAA9}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Hoja1!$B$7</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>  DIF 3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Hoja1!$C$7:$L$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-C22B-4C16-BE54-D40F0951AAA9}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1628,16 +1565,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A09BB4A-54DC-429E-B086-C294D4F51FFD}">
   <dimension ref="B2:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -1665,9 +1602,9 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -1709,7 +1646,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1753,7 +1690,7 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1801,7 +1738,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1846,29 +1783,15 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <f>F6-E6</f>
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <f>G6-F6</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>

--- a/1. Suma de enteros base UNO/SU-MTDeterminista2C.xlsx
+++ b/1. Suma de enteros base UNO/SU-MTDeterminista2C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\Universidad\5º Año\2º Cuatrimestre\Teoría avanzada de la computación\Práctica\Práctica 2\1. Suma de enteros base UNO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B05A53E4-781D-4D5B-8017-DAFDE582F5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4270EBC-CE98-444C-A63A-89B9D96C99D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
   </bookViews>
@@ -221,11 +221,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="es-ES" sz="1200"/>
-              <a:t>PALÍNDROMOS</a:t>
+              <a:t>SUMA UNO</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="es-ES" sz="1200" baseline="0"/>
-              <a:t> - MT DETERMINISTA 1 CINTA</a:t>
+              <a:t> - MT DETERMINISTA 2 CINTAS</a:t>
             </a:r>
             <a:endParaRPr lang="es-ES" sz="1200"/>
           </a:p>
@@ -1704,7 +1704,7 @@
         <v>3</v>
       </c>
       <c r="F5" s="5">
-        <f t="shared" ref="F5:I7" si="0">F4-E4</f>
+        <f t="shared" ref="F5:I6" si="0">F4-E4</f>
         <v>3</v>
       </c>
       <c r="G5" s="5">
